--- a/acs_coffee_management/2024-09-12_employees_input.xlsx
+++ b/acs_coffee_management/2024-09-12_employees_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lle\workspace\acs-coffee-management\acs_coffee_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D8DA5E-0AB9-446F-ACF7-E93401F37A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9EE1C-90D2-458A-9C0B-02A01E9B8F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -370,168 +370,6 @@
     <t>Yavuzer, Arty</t>
   </si>
   <si>
-    <t>qr-1</t>
-  </si>
-  <si>
-    <t>qr-2</t>
-  </si>
-  <si>
-    <t>qr-3</t>
-  </si>
-  <si>
-    <t>qr-4</t>
-  </si>
-  <si>
-    <t>qr-5</t>
-  </si>
-  <si>
-    <t>qr-6</t>
-  </si>
-  <si>
-    <t>qr-38</t>
-  </si>
-  <si>
-    <t>qr-7</t>
-  </si>
-  <si>
-    <t>qr-8</t>
-  </si>
-  <si>
-    <t>qr-9</t>
-  </si>
-  <si>
-    <t>qr-10</t>
-  </si>
-  <si>
-    <t>qr-11</t>
-  </si>
-  <si>
-    <t>qr-12</t>
-  </si>
-  <si>
-    <t>qr-39</t>
-  </si>
-  <si>
-    <t>qr-13</t>
-  </si>
-  <si>
-    <t>qr-40</t>
-  </si>
-  <si>
-    <t>qr-14</t>
-  </si>
-  <si>
-    <t>qr-41</t>
-  </si>
-  <si>
-    <t>qr-42</t>
-  </si>
-  <si>
-    <t>qr-15</t>
-  </si>
-  <si>
-    <t>qr-43</t>
-  </si>
-  <si>
-    <t>qr-16</t>
-  </si>
-  <si>
-    <t>qr-17</t>
-  </si>
-  <si>
-    <t>qr-19</t>
-  </si>
-  <si>
-    <t>qr-44</t>
-  </si>
-  <si>
-    <t>qr-18</t>
-  </si>
-  <si>
-    <t>qr-20</t>
-  </si>
-  <si>
-    <t>qr-21</t>
-  </si>
-  <si>
-    <t>qr-22</t>
-  </si>
-  <si>
-    <t>qr-23</t>
-  </si>
-  <si>
-    <t>qr-24</t>
-  </si>
-  <si>
-    <t>qr-25</t>
-  </si>
-  <si>
-    <t>qr-26</t>
-  </si>
-  <si>
-    <t>qr-27</t>
-  </si>
-  <si>
-    <t>qr-28</t>
-  </si>
-  <si>
-    <t>qr-45</t>
-  </si>
-  <si>
-    <t>qr-29</t>
-  </si>
-  <si>
-    <t>qr-30</t>
-  </si>
-  <si>
-    <t>qr-46</t>
-  </si>
-  <si>
-    <t>qr-47</t>
-  </si>
-  <si>
-    <t>qr-32</t>
-  </si>
-  <si>
-    <t>qr-31</t>
-  </si>
-  <si>
-    <t>qr-33</t>
-  </si>
-  <si>
-    <t>qr-48</t>
-  </si>
-  <si>
-    <t>qr-49</t>
-  </si>
-  <si>
-    <t>qr-34</t>
-  </si>
-  <si>
-    <t>qr-50</t>
-  </si>
-  <si>
-    <t>qr-51</t>
-  </si>
-  <si>
-    <t>qr-52</t>
-  </si>
-  <si>
-    <t>qr-53</t>
-  </si>
-  <si>
-    <t>qr-36</t>
-  </si>
-  <si>
-    <t>qr-35</t>
-  </si>
-  <si>
-    <t>qr-54</t>
-  </si>
-  <si>
-    <t>qr-37</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
@@ -641,6 +479,168 @@
   </si>
   <si>
     <t>3.25</t>
+  </si>
+  <si>
+    <t>acosta-andres</t>
+  </si>
+  <si>
+    <t>ahmadifar-amir</t>
+  </si>
+  <si>
+    <t>alexandra-bach</t>
+  </si>
+  <si>
+    <t>nicole-bielders</t>
+  </si>
+  <si>
+    <t>robert-bielders</t>
+  </si>
+  <si>
+    <t>cesar-cazal</t>
+  </si>
+  <si>
+    <t>kenny-chen</t>
+  </si>
+  <si>
+    <t>niklas-eiling</t>
+  </si>
+  <si>
+    <t>charles-ehemel</t>
+  </si>
+  <si>
+    <t>laura-fuentes-grau</t>
+  </si>
+  <si>
+    <t>hamza-gabbar</t>
+  </si>
+  <si>
+    <t>juan-adolfo-galeano</t>
+  </si>
+  <si>
+    <t>wilfried-gier</t>
+  </si>
+  <si>
+    <t>roua-hamila</t>
+  </si>
+  <si>
+    <t>fenshuo-hao</t>
+  </si>
+  <si>
+    <t>ricarda-heyde</t>
+  </si>
+  <si>
+    <t>marijorie-hoegen</t>
+  </si>
+  <si>
+    <t>charukeshi-joglekar</t>
+  </si>
+  <si>
+    <t>martina-josevski</t>
+  </si>
+  <si>
+    <t>yoga-kannan</t>
+  </si>
+  <si>
+    <t>ece-kara</t>
+  </si>
+  <si>
+    <t>benish-khan</t>
+  </si>
+  <si>
+    <t>asimenia-korompili</t>
+  </si>
+  <si>
+    <t>martin-kroning</t>
+  </si>
+  <si>
+    <t>arya-kumalajati</t>
+  </si>
+  <si>
+    <t>iris-koster</t>
+  </si>
+  <si>
+    <t>stefan-lankes</t>
+  </si>
+  <si>
+    <t>lenz-lukas</t>
+  </si>
+  <si>
+    <t>antonello-monti</t>
+  </si>
+  <si>
+    <t>marc-moritz</t>
+  </si>
+  <si>
+    <t>ghassen-nakti</t>
+  </si>
+  <si>
+    <t>zhiyu-pan</t>
+  </si>
+  <si>
+    <t>thanakorn-penthong</t>
+  </si>
+  <si>
+    <t>manuel-pitz</t>
+  </si>
+  <si>
+    <t>ferdinanda-ponci</t>
+  </si>
+  <si>
+    <t>simon-prein</t>
+  </si>
+  <si>
+    <t>lara-roth</t>
+  </si>
+  <si>
+    <t>ahmed-salawudeen</t>
+  </si>
+  <si>
+    <t>nagar-santu</t>
+  </si>
+  <si>
+    <t>riccardo-scalabrin</t>
+  </si>
+  <si>
+    <t>sebastian-schwarz</t>
+  </si>
+  <si>
+    <t>bettina-schafer</t>
+  </si>
+  <si>
+    <t>foroogh-sedighi</t>
+  </si>
+  <si>
+    <t>sarah-simon</t>
+  </si>
+  <si>
+    <t>emily-spies</t>
+  </si>
+  <si>
+    <t>ivelina-stoyanova</t>
+  </si>
+  <si>
+    <t>su-mon-tun</t>
+  </si>
+  <si>
+    <t>arian-van-megen</t>
+  </si>
+  <si>
+    <t>steffen-vogel</t>
+  </si>
+  <si>
+    <t>christian-vossel</t>
+  </si>
+  <si>
+    <t>felig-wege</t>
+  </si>
+  <si>
+    <t>katharina-wehrmeister</t>
+  </si>
+  <si>
+    <t>junke-yannik</t>
+  </si>
+  <si>
+    <t>arty-yavuzer</t>
   </si>
 </sst>
 </file>
@@ -1001,11 +1001,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
@@ -1048,13 +1052,13 @@
         <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -1077,13 +1081,13 @@
         <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1106,13 +1110,13 @@
         <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1135,13 +1139,13 @@
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="1">
         <v>56</v>
@@ -1164,13 +1168,13 @@
         <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="H6" s="1">
         <v>79</v>
@@ -1193,13 +1197,13 @@
         <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H7" s="1">
         <v>24</v>
@@ -1222,13 +1226,13 @@
         <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="H8" s="1">
         <v>56</v>
@@ -1251,13 +1255,13 @@
         <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1280,13 +1284,13 @@
         <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1">
         <v>47</v>
@@ -1309,13 +1313,13 @@
         <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1338,13 +1342,13 @@
         <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1367,13 +1371,13 @@
         <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H13" s="1">
         <v>25</v>
@@ -1396,13 +1400,13 @@
         <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1425,13 +1429,13 @@
         <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1454,13 +1458,13 @@
         <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1">
         <v>24</v>
@@ -1483,13 +1487,13 @@
         <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1">
         <v>5</v>
@@ -1512,13 +1516,13 @@
         <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1541,13 +1545,13 @@
         <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="H19" s="1">
         <v>9</v>
@@ -1570,13 +1574,13 @@
         <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1599,13 +1603,13 @@
         <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="H21" s="1">
         <v>49</v>
@@ -1628,13 +1632,13 @@
         <v>82</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H22" s="1">
         <v>68</v>
@@ -1657,13 +1661,13 @@
         <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="H23" s="1">
         <v>60</v>
@@ -1686,13 +1690,13 @@
         <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -1715,13 +1719,13 @@
         <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
@@ -1744,13 +1748,13 @@
         <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H26" s="1">
         <v>8</v>
@@ -1773,13 +1777,13 @@
         <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="H27" s="1">
         <v>14</v>
@@ -1802,13 +1806,13 @@
         <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1">
         <v>56</v>
@@ -1831,13 +1835,13 @@
         <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="H29" s="1">
         <v>30</v>
@@ -1860,13 +1864,13 @@
         <v>90</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -1889,13 +1893,13 @@
         <v>91</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1918,13 +1922,13 @@
         <v>92</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1947,13 +1951,13 @@
         <v>93</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="H33" s="1">
         <v>9</v>
@@ -1976,13 +1980,13 @@
         <v>94</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1">
         <v>11</v>
@@ -2005,13 +2009,13 @@
         <v>95</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -2034,13 +2038,13 @@
         <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2063,13 +2067,13 @@
         <v>97</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="H37" s="1">
         <v>51</v>
@@ -2092,13 +2096,13 @@
         <v>98</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H38" s="1">
         <v>3</v>
@@ -2121,13 +2125,13 @@
         <v>99</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="H39" s="1">
         <v>5</v>
@@ -2150,13 +2154,13 @@
         <v>100</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="H40" s="1">
         <v>3</v>
@@ -2179,13 +2183,13 @@
         <v>101</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H41" s="1">
         <v>89</v>
@@ -2208,13 +2212,13 @@
         <v>102</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -2237,13 +2241,13 @@
         <v>103</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -2266,13 +2270,13 @@
         <v>104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="H44" s="1">
         <v>10</v>
@@ -2295,13 +2299,13 @@
         <v>105</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -2324,13 +2328,13 @@
         <v>106</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="H46" s="1">
         <v>11</v>
@@ -2353,13 +2357,13 @@
         <v>107</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="H47" s="1">
         <v>6</v>
@@ -2382,13 +2386,13 @@
         <v>108</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="H48" s="1">
         <v>14</v>
@@ -2411,13 +2415,13 @@
         <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2440,13 +2444,13 @@
         <v>110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="H50" s="1">
         <v>12</v>
@@ -2469,13 +2473,13 @@
         <v>111</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H51" s="1">
         <v>6</v>
@@ -2498,13 +2502,13 @@
         <v>112</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="H52" s="1">
         <v>4</v>
@@ -2527,13 +2531,13 @@
         <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="H53" s="1">
         <v>4</v>
@@ -2556,13 +2560,13 @@
         <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="H54" s="1">
         <v>8</v>
@@ -2585,13 +2589,13 @@
         <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
